--- a/Examples/ANP_USEconomy_Prediction2001/USEconomy_Excel_Full_empty.xlsx
+++ b/Examples/ANP_USEconomy_Prediction2001/USEconomy_Excel_Full_empty.xlsx
@@ -13,9 +13,92 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="26">
+  <si>
+    <t>1 Aggregate Demand</t>
+  </si>
+  <si>
+    <t>Enter judgments for the paiwise comparisons in the matrix or direct values in the green cells</t>
+  </si>
+  <si>
+    <t>2 Aggregate Demand Factors</t>
+  </si>
+  <si>
+    <t>1 Consumption</t>
+  </si>
+  <si>
+    <t>Direct values</t>
+  </si>
+  <si>
+    <t>2 Exports</t>
+  </si>
+  <si>
+    <t>3 Investment</t>
+  </si>
+  <si>
+    <t>4 Confidence</t>
+  </si>
+  <si>
+    <t>5 Fiscal Policy</t>
+  </si>
+  <si>
+    <t>6 Monetary Policy</t>
+  </si>
+  <si>
+    <t>7 Expectations</t>
+  </si>
+  <si>
+    <t>2 Aggregate Supply</t>
+  </si>
+  <si>
+    <t>3 Aggregate Supply Factors</t>
+  </si>
+  <si>
+    <t>1 Labor Costs</t>
+  </si>
+  <si>
+    <t>2 Natural Resources Costs</t>
+  </si>
+  <si>
+    <t>3 Expectations</t>
+  </si>
+  <si>
+    <t>3 Geopolitical Contexts</t>
+  </si>
+  <si>
+    <t>4 Geopolitical Contexts</t>
+  </si>
+  <si>
+    <t>1 Major International Political Relationships</t>
+  </si>
+  <si>
+    <t>2 Major International Economic Relationships</t>
+  </si>
+  <si>
+    <t>4Alternatives</t>
+  </si>
+  <si>
+    <t>1 Three months</t>
+  </si>
+  <si>
+    <t>2 Six months</t>
+  </si>
+  <si>
+    <t>3 Twelve months</t>
+  </si>
+  <si>
+    <t>4 Twenty four months</t>
+  </si>
+  <si>
+    <t>1 Primary Factors</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -23,16 +106,70 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC3D5FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD5FFC3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF6B"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCEEBD6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF808080"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -40,12 +177,35 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -340,7 +500,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:I165"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -348,7 +508,1759 @@
   <cols>
     <col min="1" max="21" width="15.7109375" customWidth="1"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5">
+        <v>1</v>
+      </c>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="7"/>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="8">
+        <f>1/C4</f>
+        <v>0</v>
+      </c>
+      <c r="C5" s="5">
+        <v>1</v>
+      </c>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="7"/>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="8">
+        <f>1/D4</f>
+        <v>0</v>
+      </c>
+      <c r="C6" s="8">
+        <f>1/D5</f>
+        <v>0</v>
+      </c>
+      <c r="D6" s="5">
+        <v>1</v>
+      </c>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="7"/>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="8">
+        <f>1/E4</f>
+        <v>0</v>
+      </c>
+      <c r="C7" s="8">
+        <f>1/E5</f>
+        <v>0</v>
+      </c>
+      <c r="D7" s="8">
+        <f>1/E6</f>
+        <v>0</v>
+      </c>
+      <c r="E7" s="5">
+        <v>1</v>
+      </c>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="7"/>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="8">
+        <f>1/F4</f>
+        <v>0</v>
+      </c>
+      <c r="C8" s="8">
+        <f>1/F5</f>
+        <v>0</v>
+      </c>
+      <c r="D8" s="8">
+        <f>1/F6</f>
+        <v>0</v>
+      </c>
+      <c r="E8" s="8">
+        <f>1/F7</f>
+        <v>0</v>
+      </c>
+      <c r="F8" s="5">
+        <v>1</v>
+      </c>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="7"/>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="8">
+        <f>1/G4</f>
+        <v>0</v>
+      </c>
+      <c r="C9" s="8">
+        <f>1/G5</f>
+        <v>0</v>
+      </c>
+      <c r="D9" s="8">
+        <f>1/G6</f>
+        <v>0</v>
+      </c>
+      <c r="E9" s="8">
+        <f>1/G7</f>
+        <v>0</v>
+      </c>
+      <c r="F9" s="8">
+        <f>1/G8</f>
+        <v>0</v>
+      </c>
+      <c r="G9" s="5">
+        <v>1</v>
+      </c>
+      <c r="H9" s="6"/>
+      <c r="I9" s="7"/>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="8">
+        <f>1/H4</f>
+        <v>0</v>
+      </c>
+      <c r="C10" s="8">
+        <f>1/H5</f>
+        <v>0</v>
+      </c>
+      <c r="D10" s="8">
+        <f>1/H6</f>
+        <v>0</v>
+      </c>
+      <c r="E10" s="8">
+        <f>1/H7</f>
+        <v>0</v>
+      </c>
+      <c r="F10" s="8">
+        <f>1/H8</f>
+        <v>0</v>
+      </c>
+      <c r="G10" s="8">
+        <f>1/H9</f>
+        <v>0</v>
+      </c>
+      <c r="H10" s="5">
+        <v>1</v>
+      </c>
+      <c r="I10" s="7"/>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" s="5">
+        <v>1</v>
+      </c>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="7"/>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" s="8">
+        <f>1/C16</f>
+        <v>0</v>
+      </c>
+      <c r="C17" s="5">
+        <v>1</v>
+      </c>
+      <c r="D17" s="6"/>
+      <c r="E17" s="7"/>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18" s="8">
+        <f>1/D16</f>
+        <v>0</v>
+      </c>
+      <c r="C18" s="8">
+        <f>1/D17</f>
+        <v>0</v>
+      </c>
+      <c r="D18" s="5">
+        <v>1</v>
+      </c>
+      <c r="E18" s="7"/>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B24" s="5">
+        <v>1</v>
+      </c>
+      <c r="C24" s="6"/>
+      <c r="D24" s="7"/>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B25" s="8">
+        <f>1/C24</f>
+        <v>0</v>
+      </c>
+      <c r="C25" s="5">
+        <v>1</v>
+      </c>
+      <c r="D25" s="7"/>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B31" s="5">
+        <v>1</v>
+      </c>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="7"/>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B32" s="8">
+        <f>1/C31</f>
+        <v>0</v>
+      </c>
+      <c r="C32" s="5">
+        <v>1</v>
+      </c>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="7"/>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B33" s="8">
+        <f>1/D31</f>
+        <v>0</v>
+      </c>
+      <c r="C33" s="8">
+        <f>1/D32</f>
+        <v>0</v>
+      </c>
+      <c r="D33" s="5">
+        <v>1</v>
+      </c>
+      <c r="E33" s="6"/>
+      <c r="F33" s="7"/>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B34" s="8">
+        <f>1/E31</f>
+        <v>0</v>
+      </c>
+      <c r="C34" s="8">
+        <f>1/E32</f>
+        <v>0</v>
+      </c>
+      <c r="D34" s="8">
+        <f>1/E33</f>
+        <v>0</v>
+      </c>
+      <c r="E34" s="5">
+        <v>1</v>
+      </c>
+      <c r="F34" s="7"/>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B40" s="5">
+        <v>1</v>
+      </c>
+      <c r="C40" s="6"/>
+      <c r="D40" s="6"/>
+      <c r="E40" s="6"/>
+      <c r="F40" s="7"/>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B41" s="8">
+        <f>1/C40</f>
+        <v>0</v>
+      </c>
+      <c r="C41" s="5">
+        <v>1</v>
+      </c>
+      <c r="D41" s="6"/>
+      <c r="E41" s="6"/>
+      <c r="F41" s="7"/>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B42" s="8">
+        <f>1/D40</f>
+        <v>0</v>
+      </c>
+      <c r="C42" s="8">
+        <f>1/D41</f>
+        <v>0</v>
+      </c>
+      <c r="D42" s="5">
+        <v>1</v>
+      </c>
+      <c r="E42" s="6"/>
+      <c r="F42" s="7"/>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B43" s="8">
+        <f>1/E40</f>
+        <v>0</v>
+      </c>
+      <c r="C43" s="8">
+        <f>1/E41</f>
+        <v>0</v>
+      </c>
+      <c r="D43" s="8">
+        <f>1/E42</f>
+        <v>0</v>
+      </c>
+      <c r="E43" s="5">
+        <v>1</v>
+      </c>
+      <c r="F43" s="7"/>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F48" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B49" s="5">
+        <v>1</v>
+      </c>
+      <c r="C49" s="6"/>
+      <c r="D49" s="6"/>
+      <c r="E49" s="6"/>
+      <c r="F49" s="7"/>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B50" s="8">
+        <f>1/C49</f>
+        <v>0</v>
+      </c>
+      <c r="C50" s="5">
+        <v>1</v>
+      </c>
+      <c r="D50" s="6"/>
+      <c r="E50" s="6"/>
+      <c r="F50" s="7"/>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B51" s="8">
+        <f>1/D49</f>
+        <v>0</v>
+      </c>
+      <c r="C51" s="8">
+        <f>1/D50</f>
+        <v>0</v>
+      </c>
+      <c r="D51" s="5">
+        <v>1</v>
+      </c>
+      <c r="E51" s="6"/>
+      <c r="F51" s="7"/>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B52" s="8">
+        <f>1/E49</f>
+        <v>0</v>
+      </c>
+      <c r="C52" s="8">
+        <f>1/E50</f>
+        <v>0</v>
+      </c>
+      <c r="D52" s="8">
+        <f>1/E51</f>
+        <v>0</v>
+      </c>
+      <c r="E52" s="5">
+        <v>1</v>
+      </c>
+      <c r="F52" s="7"/>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D57" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E57" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F57" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B58" s="5">
+        <v>1</v>
+      </c>
+      <c r="C58" s="6"/>
+      <c r="D58" s="6"/>
+      <c r="E58" s="6"/>
+      <c r="F58" s="7"/>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B59" s="8">
+        <f>1/C58</f>
+        <v>0</v>
+      </c>
+      <c r="C59" s="5">
+        <v>1</v>
+      </c>
+      <c r="D59" s="6"/>
+      <c r="E59" s="6"/>
+      <c r="F59" s="7"/>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B60" s="8">
+        <f>1/D58</f>
+        <v>0</v>
+      </c>
+      <c r="C60" s="8">
+        <f>1/D59</f>
+        <v>0</v>
+      </c>
+      <c r="D60" s="5">
+        <v>1</v>
+      </c>
+      <c r="E60" s="6"/>
+      <c r="F60" s="7"/>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B61" s="8">
+        <f>1/E58</f>
+        <v>0</v>
+      </c>
+      <c r="C61" s="8">
+        <f>1/E59</f>
+        <v>0</v>
+      </c>
+      <c r="D61" s="8">
+        <f>1/E60</f>
+        <v>0</v>
+      </c>
+      <c r="E61" s="5">
+        <v>1</v>
+      </c>
+      <c r="F61" s="7"/>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D66" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E66" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F66" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B67" s="5">
+        <v>1</v>
+      </c>
+      <c r="C67" s="6"/>
+      <c r="D67" s="6"/>
+      <c r="E67" s="6"/>
+      <c r="F67" s="7"/>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B68" s="8">
+        <f>1/C67</f>
+        <v>0</v>
+      </c>
+      <c r="C68" s="5">
+        <v>1</v>
+      </c>
+      <c r="D68" s="6"/>
+      <c r="E68" s="6"/>
+      <c r="F68" s="7"/>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B69" s="8">
+        <f>1/D67</f>
+        <v>0</v>
+      </c>
+      <c r="C69" s="8">
+        <f>1/D68</f>
+        <v>0</v>
+      </c>
+      <c r="D69" s="5">
+        <v>1</v>
+      </c>
+      <c r="E69" s="6"/>
+      <c r="F69" s="7"/>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="A70" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B70" s="8">
+        <f>1/E67</f>
+        <v>0</v>
+      </c>
+      <c r="C70" s="8">
+        <f>1/E68</f>
+        <v>0</v>
+      </c>
+      <c r="D70" s="8">
+        <f>1/E69</f>
+        <v>0</v>
+      </c>
+      <c r="E70" s="5">
+        <v>1</v>
+      </c>
+      <c r="F70" s="7"/>
+    </row>
+    <row r="73" spans="1:6">
+      <c r="A73" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
+      <c r="A74" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
+      <c r="A75" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D75" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E75" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F75" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
+      <c r="A76" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B76" s="5">
+        <v>1</v>
+      </c>
+      <c r="C76" s="6"/>
+      <c r="D76" s="6"/>
+      <c r="E76" s="6"/>
+      <c r="F76" s="7"/>
+    </row>
+    <row r="77" spans="1:6">
+      <c r="A77" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B77" s="8">
+        <f>1/C76</f>
+        <v>0</v>
+      </c>
+      <c r="C77" s="5">
+        <v>1</v>
+      </c>
+      <c r="D77" s="6"/>
+      <c r="E77" s="6"/>
+      <c r="F77" s="7"/>
+    </row>
+    <row r="78" spans="1:6">
+      <c r="A78" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B78" s="8">
+        <f>1/D76</f>
+        <v>0</v>
+      </c>
+      <c r="C78" s="8">
+        <f>1/D77</f>
+        <v>0</v>
+      </c>
+      <c r="D78" s="5">
+        <v>1</v>
+      </c>
+      <c r="E78" s="6"/>
+      <c r="F78" s="7"/>
+    </row>
+    <row r="79" spans="1:6">
+      <c r="A79" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B79" s="8">
+        <f>1/E76</f>
+        <v>0</v>
+      </c>
+      <c r="C79" s="8">
+        <f>1/E77</f>
+        <v>0</v>
+      </c>
+      <c r="D79" s="8">
+        <f>1/E78</f>
+        <v>0</v>
+      </c>
+      <c r="E79" s="5">
+        <v>1</v>
+      </c>
+      <c r="F79" s="7"/>
+    </row>
+    <row r="82" spans="1:6">
+      <c r="A82" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
+      <c r="A83" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
+      <c r="A84" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B84" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C84" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D84" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E84" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F84" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
+      <c r="A85" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B85" s="5">
+        <v>1</v>
+      </c>
+      <c r="C85" s="6"/>
+      <c r="D85" s="6"/>
+      <c r="E85" s="6"/>
+      <c r="F85" s="7"/>
+    </row>
+    <row r="86" spans="1:6">
+      <c r="A86" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B86" s="8">
+        <f>1/C85</f>
+        <v>0</v>
+      </c>
+      <c r="C86" s="5">
+        <v>1</v>
+      </c>
+      <c r="D86" s="6"/>
+      <c r="E86" s="6"/>
+      <c r="F86" s="7"/>
+    </row>
+    <row r="87" spans="1:6">
+      <c r="A87" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B87" s="8">
+        <f>1/D85</f>
+        <v>0</v>
+      </c>
+      <c r="C87" s="8">
+        <f>1/D86</f>
+        <v>0</v>
+      </c>
+      <c r="D87" s="5">
+        <v>1</v>
+      </c>
+      <c r="E87" s="6"/>
+      <c r="F87" s="7"/>
+    </row>
+    <row r="88" spans="1:6">
+      <c r="A88" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B88" s="8">
+        <f>1/E85</f>
+        <v>0</v>
+      </c>
+      <c r="C88" s="8">
+        <f>1/E86</f>
+        <v>0</v>
+      </c>
+      <c r="D88" s="8">
+        <f>1/E87</f>
+        <v>0</v>
+      </c>
+      <c r="E88" s="5">
+        <v>1</v>
+      </c>
+      <c r="F88" s="7"/>
+    </row>
+    <row r="91" spans="1:6">
+      <c r="A91" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
+      <c r="A92" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
+      <c r="A93" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B93" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C93" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D93" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E93" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F93" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
+      <c r="A94" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B94" s="5">
+        <v>1</v>
+      </c>
+      <c r="C94" s="6"/>
+      <c r="D94" s="6"/>
+      <c r="E94" s="6"/>
+      <c r="F94" s="7"/>
+    </row>
+    <row r="95" spans="1:6">
+      <c r="A95" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B95" s="8">
+        <f>1/C94</f>
+        <v>0</v>
+      </c>
+      <c r="C95" s="5">
+        <v>1</v>
+      </c>
+      <c r="D95" s="6"/>
+      <c r="E95" s="6"/>
+      <c r="F95" s="7"/>
+    </row>
+    <row r="96" spans="1:6">
+      <c r="A96" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B96" s="8">
+        <f>1/D94</f>
+        <v>0</v>
+      </c>
+      <c r="C96" s="8">
+        <f>1/D95</f>
+        <v>0</v>
+      </c>
+      <c r="D96" s="5">
+        <v>1</v>
+      </c>
+      <c r="E96" s="6"/>
+      <c r="F96" s="7"/>
+    </row>
+    <row r="97" spans="1:6">
+      <c r="A97" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B97" s="8">
+        <f>1/E94</f>
+        <v>0</v>
+      </c>
+      <c r="C97" s="8">
+        <f>1/E95</f>
+        <v>0</v>
+      </c>
+      <c r="D97" s="8">
+        <f>1/E96</f>
+        <v>0</v>
+      </c>
+      <c r="E97" s="5">
+        <v>1</v>
+      </c>
+      <c r="F97" s="7"/>
+    </row>
+    <row r="100" spans="1:6">
+      <c r="A100" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
+      <c r="A101" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
+      <c r="A102" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B102" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C102" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D102" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E102" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F102" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
+      <c r="A103" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B103" s="5">
+        <v>1</v>
+      </c>
+      <c r="C103" s="6"/>
+      <c r="D103" s="6"/>
+      <c r="E103" s="6"/>
+      <c r="F103" s="7"/>
+    </row>
+    <row r="104" spans="1:6">
+      <c r="A104" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B104" s="8">
+        <f>1/C103</f>
+        <v>0</v>
+      </c>
+      <c r="C104" s="5">
+        <v>1</v>
+      </c>
+      <c r="D104" s="6"/>
+      <c r="E104" s="6"/>
+      <c r="F104" s="7"/>
+    </row>
+    <row r="105" spans="1:6">
+      <c r="A105" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B105" s="8">
+        <f>1/D103</f>
+        <v>0</v>
+      </c>
+      <c r="C105" s="8">
+        <f>1/D104</f>
+        <v>0</v>
+      </c>
+      <c r="D105" s="5">
+        <v>1</v>
+      </c>
+      <c r="E105" s="6"/>
+      <c r="F105" s="7"/>
+    </row>
+    <row r="106" spans="1:6">
+      <c r="A106" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B106" s="8">
+        <f>1/E103</f>
+        <v>0</v>
+      </c>
+      <c r="C106" s="8">
+        <f>1/E104</f>
+        <v>0</v>
+      </c>
+      <c r="D106" s="8">
+        <f>1/E105</f>
+        <v>0</v>
+      </c>
+      <c r="E106" s="5">
+        <v>1</v>
+      </c>
+      <c r="F106" s="7"/>
+    </row>
+    <row r="109" spans="1:6">
+      <c r="A109" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6">
+      <c r="A110" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6">
+      <c r="A111" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B111" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C111" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D111" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E111" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F111" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6">
+      <c r="A112" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B112" s="5">
+        <v>1</v>
+      </c>
+      <c r="C112" s="6"/>
+      <c r="D112" s="6"/>
+      <c r="E112" s="6"/>
+      <c r="F112" s="7"/>
+    </row>
+    <row r="113" spans="1:6">
+      <c r="A113" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B113" s="8">
+        <f>1/C112</f>
+        <v>0</v>
+      </c>
+      <c r="C113" s="5">
+        <v>1</v>
+      </c>
+      <c r="D113" s="6"/>
+      <c r="E113" s="6"/>
+      <c r="F113" s="7"/>
+    </row>
+    <row r="114" spans="1:6">
+      <c r="A114" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B114" s="8">
+        <f>1/D112</f>
+        <v>0</v>
+      </c>
+      <c r="C114" s="8">
+        <f>1/D113</f>
+        <v>0</v>
+      </c>
+      <c r="D114" s="5">
+        <v>1</v>
+      </c>
+      <c r="E114" s="6"/>
+      <c r="F114" s="7"/>
+    </row>
+    <row r="115" spans="1:6">
+      <c r="A115" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B115" s="8">
+        <f>1/E112</f>
+        <v>0</v>
+      </c>
+      <c r="C115" s="8">
+        <f>1/E113</f>
+        <v>0</v>
+      </c>
+      <c r="D115" s="8">
+        <f>1/E114</f>
+        <v>0</v>
+      </c>
+      <c r="E115" s="5">
+        <v>1</v>
+      </c>
+      <c r="F115" s="7"/>
+    </row>
+    <row r="118" spans="1:6">
+      <c r="A118" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6">
+      <c r="A119" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6">
+      <c r="A120" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B120" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C120" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D120" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E120" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F120" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6">
+      <c r="A121" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B121" s="5">
+        <v>1</v>
+      </c>
+      <c r="C121" s="6"/>
+      <c r="D121" s="6"/>
+      <c r="E121" s="6"/>
+      <c r="F121" s="7"/>
+    </row>
+    <row r="122" spans="1:6">
+      <c r="A122" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B122" s="8">
+        <f>1/C121</f>
+        <v>0</v>
+      </c>
+      <c r="C122" s="5">
+        <v>1</v>
+      </c>
+      <c r="D122" s="6"/>
+      <c r="E122" s="6"/>
+      <c r="F122" s="7"/>
+    </row>
+    <row r="123" spans="1:6">
+      <c r="A123" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B123" s="8">
+        <f>1/D121</f>
+        <v>0</v>
+      </c>
+      <c r="C123" s="8">
+        <f>1/D122</f>
+        <v>0</v>
+      </c>
+      <c r="D123" s="5">
+        <v>1</v>
+      </c>
+      <c r="E123" s="6"/>
+      <c r="F123" s="7"/>
+    </row>
+    <row r="124" spans="1:6">
+      <c r="A124" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B124" s="8">
+        <f>1/E121</f>
+        <v>0</v>
+      </c>
+      <c r="C124" s="8">
+        <f>1/E122</f>
+        <v>0</v>
+      </c>
+      <c r="D124" s="8">
+        <f>1/E123</f>
+        <v>0</v>
+      </c>
+      <c r="E124" s="5">
+        <v>1</v>
+      </c>
+      <c r="F124" s="7"/>
+    </row>
+    <row r="127" spans="1:6">
+      <c r="A127" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6">
+      <c r="A128" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6">
+      <c r="A129" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B129" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C129" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D129" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E129" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F129" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6">
+      <c r="A130" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B130" s="5">
+        <v>1</v>
+      </c>
+      <c r="C130" s="6"/>
+      <c r="D130" s="6"/>
+      <c r="E130" s="6"/>
+      <c r="F130" s="7"/>
+    </row>
+    <row r="131" spans="1:6">
+      <c r="A131" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B131" s="8">
+        <f>1/C130</f>
+        <v>0</v>
+      </c>
+      <c r="C131" s="5">
+        <v>1</v>
+      </c>
+      <c r="D131" s="6"/>
+      <c r="E131" s="6"/>
+      <c r="F131" s="7"/>
+    </row>
+    <row r="132" spans="1:6">
+      <c r="A132" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B132" s="8">
+        <f>1/D130</f>
+        <v>0</v>
+      </c>
+      <c r="C132" s="8">
+        <f>1/D131</f>
+        <v>0</v>
+      </c>
+      <c r="D132" s="5">
+        <v>1</v>
+      </c>
+      <c r="E132" s="6"/>
+      <c r="F132" s="7"/>
+    </row>
+    <row r="133" spans="1:6">
+      <c r="A133" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B133" s="8">
+        <f>1/E130</f>
+        <v>0</v>
+      </c>
+      <c r="C133" s="8">
+        <f>1/E131</f>
+        <v>0</v>
+      </c>
+      <c r="D133" s="8">
+        <f>1/E132</f>
+        <v>0</v>
+      </c>
+      <c r="E133" s="5">
+        <v>1</v>
+      </c>
+      <c r="F133" s="7"/>
+    </row>
+    <row r="136" spans="1:6">
+      <c r="A136" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6">
+      <c r="A137" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6">
+      <c r="A138" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B138" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C138" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D138" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E138" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6">
+      <c r="A139" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B139" s="5">
+        <v>1</v>
+      </c>
+      <c r="C139" s="6"/>
+      <c r="D139" s="6"/>
+      <c r="E139" s="7"/>
+    </row>
+    <row r="140" spans="1:6">
+      <c r="A140" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B140" s="8">
+        <f>1/C139</f>
+        <v>0</v>
+      </c>
+      <c r="C140" s="5">
+        <v>1</v>
+      </c>
+      <c r="D140" s="6"/>
+      <c r="E140" s="7"/>
+    </row>
+    <row r="141" spans="1:6">
+      <c r="A141" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B141" s="8">
+        <f>1/D139</f>
+        <v>0</v>
+      </c>
+      <c r="C141" s="8">
+        <f>1/D140</f>
+        <v>0</v>
+      </c>
+      <c r="D141" s="5">
+        <v>1</v>
+      </c>
+      <c r="E141" s="7"/>
+    </row>
+    <row r="144" spans="1:6">
+      <c r="A144" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5">
+      <c r="A145" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5">
+      <c r="A146" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B146" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C146" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D146" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E146" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5">
+      <c r="A147" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B147" s="5">
+        <v>1</v>
+      </c>
+      <c r="C147" s="6"/>
+      <c r="D147" s="6"/>
+      <c r="E147" s="7"/>
+    </row>
+    <row r="148" spans="1:5">
+      <c r="A148" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B148" s="8">
+        <f>1/C147</f>
+        <v>0</v>
+      </c>
+      <c r="C148" s="5">
+        <v>1</v>
+      </c>
+      <c r="D148" s="6"/>
+      <c r="E148" s="7"/>
+    </row>
+    <row r="149" spans="1:5">
+      <c r="A149" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B149" s="8">
+        <f>1/D147</f>
+        <v>0</v>
+      </c>
+      <c r="C149" s="8">
+        <f>1/D148</f>
+        <v>0</v>
+      </c>
+      <c r="D149" s="5">
+        <v>1</v>
+      </c>
+      <c r="E149" s="7"/>
+    </row>
+    <row r="152" spans="1:5">
+      <c r="A152" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5">
+      <c r="A153" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5">
+      <c r="A154" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B154" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C154" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D154" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E154" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5">
+      <c r="A155" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B155" s="5">
+        <v>1</v>
+      </c>
+      <c r="C155" s="6"/>
+      <c r="D155" s="6"/>
+      <c r="E155" s="7"/>
+    </row>
+    <row r="156" spans="1:5">
+      <c r="A156" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B156" s="8">
+        <f>1/C155</f>
+        <v>0</v>
+      </c>
+      <c r="C156" s="5">
+        <v>1</v>
+      </c>
+      <c r="D156" s="6"/>
+      <c r="E156" s="7"/>
+    </row>
+    <row r="157" spans="1:5">
+      <c r="A157" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B157" s="8">
+        <f>1/D155</f>
+        <v>0</v>
+      </c>
+      <c r="C157" s="8">
+        <f>1/D156</f>
+        <v>0</v>
+      </c>
+      <c r="D157" s="5">
+        <v>1</v>
+      </c>
+      <c r="E157" s="7"/>
+    </row>
+    <row r="160" spans="1:5">
+      <c r="A160" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5">
+      <c r="A161" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5">
+      <c r="A162" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B162" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C162" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D162" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E162" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5">
+      <c r="A163" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B163" s="5">
+        <v>1</v>
+      </c>
+      <c r="C163" s="6"/>
+      <c r="D163" s="6"/>
+      <c r="E163" s="7"/>
+    </row>
+    <row r="164" spans="1:5">
+      <c r="A164" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B164" s="8">
+        <f>1/C163</f>
+        <v>0</v>
+      </c>
+      <c r="C164" s="5">
+        <v>1</v>
+      </c>
+      <c r="D164" s="6"/>
+      <c r="E164" s="7"/>
+    </row>
+    <row r="165" spans="1:5">
+      <c r="A165" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B165" s="8">
+        <f>1/D163</f>
+        <v>0</v>
+      </c>
+      <c r="C165" s="8">
+        <f>1/D164</f>
+        <v>0</v>
+      </c>
+      <c r="D165" s="5">
+        <v>1</v>
+      </c>
+      <c r="E165" s="7"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>